--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Grant_Ruthven/Alexander_Grant_Ruthven.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Grant_Ruthven/Alexander_Grant_Ruthven.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Grant Ruthven est un herpétologiste américain, né le 1er avril 1882 à Hull dans l'Iowa et mort vers le 19 janvier 1971 à Ann Arbor.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences au Morningside College de Sioux City en 1903. Il entre à l'université du Michigan où il étudie auprès de l'écologiste Charles Christopher (1873-1955). Il obtient son doctorat en 1906 avec une thèse intitulée Variations and Genetics Relationships of the Garter-Snake, parue en 1908. C'est une œuvre pionnière dans l'emploi des statistiques pour étudier les variations biogéographiques. Il rejoint après son doctorat l'équipe du Muséum de l'université du Michigan comme conservateur du département d'herpétologie puis comme instructeur en zoologie.
 Il dirige le muséum en 1913, obtient une chaire de professeur en 1915 puis la direction du département de zoologie en 1927. L'immeuble actuel abritant le muséum a été construit sous sa direction et celui-ci devient l'un des principaux centres de recherche en herpétologie. Son organisation ainsi que ses programmes de recherches sont clairement inspirés du Museum of Comparative Zoology de Louis Agassiz (1807-1873).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
